--- a/Supplementary Files/List of Items.xlsx
+++ b/Supplementary Files/List of Items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave Klenerman\Desktop\Nature protocols paper\Re-submission files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave Klenerman\Desktop\Nature protocols paper\Re-submission files\Github\Supplementary Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F8DFFC-B4B8-4B94-A12C-58F900C52C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33446674-6565-44A0-8B83-4121B6D0D7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{3CCA0DDD-FDF1-4B26-9AAD-1B975B4C00BE}"/>
+    <workbookView xWindow="1842" yWindow="1260" windowWidth="15360" windowHeight="8874" xr2:uid="{3CCA0DDD-FDF1-4B26-9AAD-1B975B4C00BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="340">
   <si>
     <t>Category</t>
   </si>
@@ -1042,6 +1042,18 @@
   </si>
   <si>
     <t>http://www.hooperlimited.co.uk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1 mm focal length, Plano convex lens </t>
+  </si>
+  <si>
+    <t>LA1951-ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 in, SM1 lens tube </t>
+  </si>
+  <si>
+    <t>SM1L10</t>
   </si>
 </sst>
 </file>
@@ -8236,6 +8248,128 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="21862143" y="116205000"/>
+          <a:ext cx="1371600" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>6048</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1377648</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>1371600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="123" name="Picture 122" descr="LA1951-ML - Ø1in N-BK7 Plano-Convex Lens, SM1-Threaded Mount, f = 25.4 mm, Uncoated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F67306BC-3CB8-42D2-AA5F-04F649CED212}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId113">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="21868191" y="276225000"/>
+          <a:ext cx="1371600" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>1371600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="124" name="Picture 123" descr="SM1L10 - SM1 Lens Tube, 1.00in Thread Depth, One Retaining Ring Included">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30A699B8-F0C5-479C-971F-39C9E61F3C9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId114">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="21862143" y="278130000"/>
           <a:ext cx="1371600" cy="1371600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8555,10 +8689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F1FF96-FADB-4506-9C13-ECD414B22DD3}">
-  <dimension ref="A1:J149"/>
+  <dimension ref="A1:J151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D143" zoomScale="63" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J146" sqref="J146"/>
+    <sheetView tabSelected="1" topLeftCell="D148" zoomScale="63" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G150" sqref="G150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -12656,7 +12790,7 @@
         <v>100</v>
       </c>
       <c r="H131" s="4">
-        <f t="shared" ref="H131:H145" si="2">G131*F131</f>
+        <f t="shared" ref="H131:H147" si="2">G131*F131</f>
         <v>100</v>
       </c>
       <c r="I131" s="4" t="s">
@@ -13122,43 +13256,105 @@
         <v>318</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A146" s="5" t="s">
+    <row r="146" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B146" s="4">
+        <v>145</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F146" s="4">
+        <v>1</v>
+      </c>
+      <c r="G146" s="4">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="H146" s="4">
+        <f t="shared" si="2"/>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="I146" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="J146"/>
+    </row>
+    <row r="147" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B147" s="4">
+        <v>146</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F147" s="4">
+        <v>1</v>
+      </c>
+      <c r="G147" s="4">
+        <v>14.53</v>
+      </c>
+      <c r="H147" s="4">
+        <f t="shared" si="2"/>
+        <v>14.53</v>
+      </c>
+      <c r="I147" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="J147"/>
+    </row>
+    <row r="148" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A148" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
-      <c r="F146" s="4"/>
-      <c r="G146" s="4"/>
-      <c r="H146" s="5">
-        <f>SUM(H2:H145)</f>
-        <v>68494.879999999961</v>
-      </c>
-      <c r="I146" s="4"/>
-      <c r="J146" s="4"/>
-    </row>
-    <row r="147" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A147" s="1" t="s">
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="5">
+        <f>SUM(H2:H147)</f>
+        <v>68548.209999999963</v>
+      </c>
+      <c r="I148" s="4"/>
+      <c r="J148" s="4"/>
+    </row>
+    <row r="149" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A149" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="H147" s="5">
-        <f>H146*0.73</f>
-        <v>50001.262399999971</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A148" s="1" t="s">
+      <c r="H149" s="5">
+        <f>H148*0.73</f>
+        <v>50040.19329999997</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A150" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="H148" s="5">
-        <f>H146*0.86</f>
-        <v>58905.596799999963</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="H149" s="5"/>
+      <c r="H150" s="5">
+        <f>H148*0.86</f>
+        <v>58951.460599999969</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="H151" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
